--- a/Dictionaries/CHOLMED3.xlsx
+++ b/Dictionaries/CHOLMED3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2523d341f1af05b7/Documents/SAN JOSE STATE/Master/CMPE 255/CMPE255 Group Project-20241025T055613Z-001/CMPE255 Group Project/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{65ABA4B9-12D3-4152-A409-ACB1D1B4A465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F06E26F9-303B-49B5-995F-45FEE1C26DB4}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{65ABA4B9-12D3-4152-A409-ACB1D1B4A465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{306A6FE6-AD6C-475B-806F-0FDCA166E2BB}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{FA4FA8B6-58CB-445B-A9A4-87D210961423}"/>
+    <workbookView xWindow="7545" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{FA4FA8B6-58CB-445B-A9A4-87D210961423}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>CHOLMED3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Value</t>
   </si>
@@ -371,6 +368,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB43167-B2E2-44ED-8466-230170B4D303}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,128 +705,123 @@
     <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>122699</v>
+      </c>
+      <c r="D2" s="1">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E2" s="9">
+        <v>26.43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>122699</v>
+        <v>254973</v>
       </c>
       <c r="D3" s="1">
-        <v>32.299999999999997</v>
+        <v>67.12</v>
       </c>
       <c r="E3" s="9">
-        <v>26.43</v>
+        <v>73.14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3">
-        <v>254973</v>
+        <v>1527</v>
       </c>
       <c r="D4" s="1">
-        <v>67.12</v>
+        <v>0.4</v>
       </c>
       <c r="E4" s="9">
-        <v>73.14</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
-        <v>1527</v>
+      <c r="C5" s="1">
+        <v>684</v>
       </c>
       <c r="D5" s="1">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="E5" s="9">
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>684</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.14000000000000001</v>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13">
+        <v>53440</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13">
-        <v>53440</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="18"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
